--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Date :</t>
   </si>
@@ -47,6 +47,15 @@
     <t>Total</t>
   </si>
   <si>
+    <t>lait</t>
+  </si>
+  <si>
+    <t>sucre</t>
+  </si>
+  <si>
+    <t>poudre</t>
+  </si>
+  <si>
     <t>TOTAL :</t>
   </si>
   <si>
@@ -56,13 +65,37 @@
     <t>Jean</t>
   </si>
   <si>
+    <t>glace</t>
+  </si>
+  <si>
+    <t>jus</t>
+  </si>
+  <si>
     <t>15-02-2021</t>
   </si>
   <si>
+    <t>Saucisse</t>
+  </si>
+  <si>
+    <t>Pomme</t>
+  </si>
+  <si>
+    <t>Haricots</t>
+  </si>
+  <si>
     <t>17-02-2021</t>
   </si>
   <si>
     <t>Paul</t>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t>Chaussure</t>
+  </si>
+  <si>
+    <t>Robe</t>
   </si>
 </sst>
 </file>
@@ -261,7 +294,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266825" cy="438150"/>
@@ -291,7 +324,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266825" cy="438150"/>
@@ -321,7 +354,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266825" cy="438150"/>
@@ -640,7 +673,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4:F15"/>
@@ -703,34 +736,46 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>700</v>
+      </c>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7"/>
@@ -807,28 +852,42 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="1" t="s">
-        <v>10</v>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20"/>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21"/>
       <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -836,40 +895,49 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="F25">
-        <v>0</v>
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="F26">
-        <v>0</v>
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -908,68 +976,89 @@
       </c>
     </row>
     <row r="34" spans="1:6">
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="E36" t="s">
-        <v>10</v>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39"/>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41"/>
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
       <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
         <v>5</v>
       </c>
-      <c r="D43">
-        <v>3</v>
+      <c r="E43">
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="F45">
-        <v>0</v>
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1008,68 +1097,89 @@
       </c>
     </row>
     <row r="53" spans="1:6">
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="E56" t="s">
-        <v>10</v>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58"/>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61"/>
-      <c r="C61" t="s">
-        <v>0</v>
+      <c r="A61" t="s">
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="C62" t="s">
-        <v>2</v>
+      <c r="A62" t="s">
+        <v>24</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>7000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>2000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>8000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1108,28 +1218,11 @@
       </c>
     </row>
     <row r="72" spans="1:6">
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="E76" t="s">
-        <v>10</v>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Date :</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>poudre</t>
+  </si>
+  <si>
+    <t>soude</t>
+  </si>
+  <si>
+    <t>chausette</t>
+  </si>
+  <si>
+    <t>pipette</t>
   </si>
   <si>
     <t>TOTAL :</t>
@@ -103,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -114,11 +123,20 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -140,113 +158,26 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -294,7 +225,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266825" cy="438150"/>
@@ -324,7 +255,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266825" cy="438150"/>
@@ -354,7 +285,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266825" cy="438150"/>
@@ -673,54 +604,63 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:F15"/>
+      <selection activeCell="A1" sqref="A1:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.141357" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.855469" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5.712891" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="7.283936" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="2.999268" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
@@ -731,508 +671,790 @@
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>700</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>200</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1000</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="1">
+        <v>7000</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" s="10">
-        <v>0</v>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" s="10">
-        <v>0</v>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" s="10">
-        <v>0</v>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" s="10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" s="10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" s="10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" s="10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
         <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20"/>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="C21" t="s">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1">
+        <v>700</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>700</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="E41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>50</v>
-      </c>
-      <c r="E24">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="E58" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39"/>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58"/>
-      <c r="C58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63">
-        <v>10</v>
-      </c>
-      <c r="E63">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="F66">
-        <v>0</v>
+      <c r="F66" s="1">
+        <v>20000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="F67">
-        <v>0</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="F68">
-        <v>0</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72">
-        <v>20000</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
